--- a/data/dts/ABZ_data.xlsx
+++ b/data/dts/ABZ_data.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
-    <sheet name="181213QQQABZ_NS.XLSM" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="enzyme" sheetId="1" r:id="rId1"/>
+    <sheet name="pathway" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId4"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId5"/>
@@ -837,8 +837,8 @@
   <dimension ref="A1:X289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A1:XFD12"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
